--- a/emx2/rd3_emx2.xlsx
+++ b/emx2/rd3_emx2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcruvolo/Github/projects-solve-rd/emx2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1651F-C8F2-1945-901B-9C1F43760FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71460961-5E41-CB4D-8A1D-7C1CADBCF47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3180" windowWidth="38400" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="molgenis" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$L$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">molgenis!$A$1:$L$212</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="362">
   <si>
     <t>subjects</t>
   </si>
@@ -1106,6 +1106,9 @@
   </si>
   <si>
     <t>The type of a material sample taken from a biological entity for testing, diagnostic, propagation, treatment or research purposes. This includes particular types of cellular molecules, cells, tissues, organs, body fluids, embryos, and body excretory substances.</t>
+  </si>
+  <si>
+    <t>subjectInformation</t>
   </si>
 </sst>
 </file>
@@ -1518,13 +1521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E209" sqref="E209"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2026,16 +2029,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>335</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2043,19 +2049,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2063,22 +2066,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
       <c r="K29" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2086,16 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>336</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2103,19 +2109,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>336</v>
-      </c>
-      <c r="I31" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2123,50 +2126,47 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>336</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
       <c r="K34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L34" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2174,16 +2174,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2191,16 +2197,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
         <v>126</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2208,19 +2214,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2228,16 +2231,19 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2245,19 +2251,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2265,16 +2268,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2282,19 +2288,16 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>335</v>
-      </c>
-      <c r="I41" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="L41" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -2302,16 +2305,19 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>335</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="L42" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2319,19 +2325,16 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2339,22 +2342,19 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
-        <v>10</v>
-      </c>
       <c r="K44" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2362,16 +2362,22 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>336</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2379,19 +2385,16 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>336</v>
-      </c>
-      <c r="I46" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2399,50 +2402,47 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>336</v>
+      </c>
+      <c r="I47" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
       <c r="K49" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2450,16 +2450,22 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>121</v>
       </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
       <c r="K50" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2467,19 +2473,16 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>336</v>
-      </c>
-      <c r="I51" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2487,16 +2490,19 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>336</v>
+      </c>
+      <c r="I52" t="s">
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2504,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
-      </c>
-      <c r="I53" t="s">
-        <v>19</v>
+        <v>126</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="L53" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2521,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
         <v>115</v>
@@ -2530,7 +2536,7 @@
         <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2538,19 +2544,16 @@
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
         <v>115</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="L55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2558,16 +2561,19 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>115</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2575,16 +2581,16 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>340</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
-      </c>
-      <c r="I57" t="s">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="L57" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2592,13 +2598,16 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="E58" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="I58" t="s">
+        <v>340</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2606,16 +2615,13 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>342</v>
+        <v>61</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
-      </c>
-      <c r="I59" t="s">
-        <v>342</v>
-      </c>
-      <c r="L59" t="s">
-        <v>251</v>
+        <v>121</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2623,13 +2629,16 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="I60" t="s">
+        <v>342</v>
       </c>
       <c r="L60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2637,19 +2646,13 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I61" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="L61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2657,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
         <v>115</v>
@@ -2669,7 +2672,7 @@
         <v>140</v>
       </c>
       <c r="L62" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2677,13 +2680,19 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
         <v>115</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L63" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2691,16 +2700,13 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L64" t="s">
-        <v>254</v>
+        <v>115</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2708,19 +2714,16 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
-      </c>
-      <c r="I65" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="L65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2728,16 +2731,19 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2745,19 +2751,16 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>335</v>
-      </c>
-      <c r="I67" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="L67" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2765,19 +2768,19 @@
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
         <v>335</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2785,19 +2788,19 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
         <v>335</v>
       </c>
       <c r="I69" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2805,19 +2808,19 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
         <v>335</v>
       </c>
       <c r="I70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2825,16 +2828,19 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>335</v>
+      </c>
+      <c r="I71" t="s">
+        <v>8</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2842,19 +2848,16 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2862,22 +2865,19 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
-      <c r="I73" t="s">
-        <v>10</v>
-      </c>
       <c r="K73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2885,16 +2885,22 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>94</v>
+        <v>336</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2902,19 +2908,16 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" t="s">
-        <v>336</v>
-      </c>
-      <c r="I75" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -2922,41 +2925,44 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>336</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="L77" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>3</v>
       </c>
-      <c r="D78" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
+      <c r="L78" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2964,19 +2970,16 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>336</v>
-      </c>
-      <c r="I79" t="s">
-        <v>2</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L79" t="s">
-        <v>245</v>
+        <v>121</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2984,13 +2987,19 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>336</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="L80" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2998,16 +3007,13 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
-      </c>
-      <c r="I81" t="s">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="L81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3015,13 +3021,16 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="I82" t="s">
+        <v>341</v>
       </c>
       <c r="L82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3029,16 +3038,13 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
         <v>121</v>
       </c>
-      <c r="K83" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="L83" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3046,13 +3052,16 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
         <v>121</v>
       </c>
+      <c r="K84" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="L84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3060,16 +3069,13 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
-      </c>
-      <c r="I85" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="L85" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3077,19 +3083,16 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>336</v>
       </c>
       <c r="I86" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="L86" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3097,16 +3100,19 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="I87" t="s">
+        <v>9</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3114,19 +3120,16 @@
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="E88" t="s">
-        <v>123</v>
-      </c>
-      <c r="I88" t="s">
-        <v>344</v>
+        <v>121</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3134,13 +3137,19 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="E89" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="I89" t="s">
+        <v>344</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="L89" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3148,13 +3157,13 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L90" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3162,13 +3171,13 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
         <v>127</v>
       </c>
       <c r="L91" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3176,16 +3185,13 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
-      </c>
-      <c r="I92" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="L92" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3193,19 +3199,16 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>335</v>
+        <v>115</v>
       </c>
       <c r="I93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="L93" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3213,19 +3216,19 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
         <v>335</v>
       </c>
       <c r="I94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3233,19 +3236,19 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
         <v>335</v>
       </c>
       <c r="I95" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3253,19 +3256,19 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E96" t="s">
         <v>335</v>
       </c>
       <c r="I96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3273,16 +3276,19 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>125</v>
+        <v>335</v>
+      </c>
+      <c r="I97" t="s">
+        <v>8</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L97" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3290,19 +3296,16 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3310,22 +3313,19 @@
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E99" t="s">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" t="s">
-        <v>10</v>
-      </c>
       <c r="K99" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3333,16 +3333,22 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>94</v>
+        <v>336</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3350,19 +3356,16 @@
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E101" t="s">
-        <v>336</v>
-      </c>
-      <c r="I101" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3370,50 +3373,47 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E102" t="s">
-        <v>124</v>
+        <v>336</v>
+      </c>
+      <c r="I102" t="s">
+        <v>10</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
+        <v>124</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="L103" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
-      <c r="D104" t="s">
-        <v>76</v>
-      </c>
-      <c r="E104" t="s">
-        <v>121</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
       <c r="K104" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3421,16 +3421,22 @@
         <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
       </c>
       <c r="K105" s="2" t="s">
         <v>171</v>
       </c>
       <c r="L105" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -3438,16 +3444,16 @@
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E106" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -3455,22 +3461,16 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E107" t="s">
-        <v>115</v>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" t="s">
-        <v>345</v>
+        <v>121</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -3478,16 +3478,22 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E108" t="s">
-        <v>335</v>
+        <v>115</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>0</v>
+        <v>345</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="L108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -3495,19 +3501,16 @@
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
         <v>335</v>
       </c>
       <c r="I109" t="s">
-        <v>2</v>
-      </c>
-      <c r="K109" s="2" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -3515,19 +3518,19 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I110" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -3535,19 +3538,19 @@
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E111" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I111" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="L111" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -3555,16 +3558,19 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>335</v>
+      </c>
+      <c r="I112" t="s">
+        <v>7</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="L112" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -3572,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E113" t="s">
         <v>121</v>
@@ -3581,7 +3587,7 @@
         <v>175</v>
       </c>
       <c r="L113" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -3589,19 +3595,16 @@
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>335</v>
-      </c>
-      <c r="I114" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="L114" t="s">
-        <v>220</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -3609,19 +3612,19 @@
         <v>4</v>
       </c>
       <c r="D115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E115" t="s">
         <v>335</v>
       </c>
       <c r="I115" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -3629,19 +3632,19 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E116" t="s">
         <v>335</v>
       </c>
       <c r="I116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -3649,16 +3652,19 @@
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>125</v>
+        <v>335</v>
+      </c>
+      <c r="I117" t="s">
+        <v>8</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L117" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -3666,19 +3672,16 @@
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E118" t="s">
-        <v>94</v>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -3686,22 +3689,19 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E119" t="s">
-        <v>336</v>
+        <v>94</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
-      <c r="I119" t="s">
-        <v>10</v>
-      </c>
       <c r="K119" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L119" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -3709,16 +3709,22 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E120" t="s">
-        <v>94</v>
+        <v>336</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L120" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -3726,19 +3732,16 @@
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E121" t="s">
-        <v>336</v>
-      </c>
-      <c r="I121" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -3746,50 +3749,47 @@
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E122" t="s">
-        <v>124</v>
+        <v>336</v>
+      </c>
+      <c r="I122" t="s">
+        <v>10</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E123" t="s">
+        <v>124</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="L123" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
-      <c r="D124" t="s">
-        <v>20</v>
-      </c>
-      <c r="E124" t="s">
-        <v>121</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
       <c r="K124" s="2" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L124" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -3797,16 +3797,22 @@
         <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>115</v>
-      </c>
-      <c r="I125" t="s">
-        <v>19</v>
+        <v>121</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="L125" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -3814,16 +3820,16 @@
         <v>5</v>
       </c>
       <c r="D126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>121</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
+      </c>
+      <c r="I126" t="s">
+        <v>19</v>
       </c>
       <c r="L126" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -3831,19 +3837,16 @@
         <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>336</v>
-      </c>
-      <c r="I127" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L127" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -3851,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128" t="s">
         <v>336</v>
@@ -3860,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L128" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -3871,19 +3874,19 @@
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E129" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I129" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L129" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -3891,13 +3894,19 @@
         <v>5</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>122</v>
+        <v>335</v>
+      </c>
+      <c r="I130" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L130" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -3905,19 +3914,13 @@
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="E131" t="s">
-        <v>123</v>
-      </c>
-      <c r="I131" t="s">
-        <v>9</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="L131" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -3925,7 +3928,7 @@
         <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E132" t="s">
         <v>123</v>
@@ -3937,7 +3940,7 @@
         <v>140</v>
       </c>
       <c r="L132" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -3945,16 +3948,19 @@
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E133" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="I133" t="s">
+        <v>9</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L133" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -3962,13 +3968,16 @@
         <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E134" t="s">
         <v>122</v>
       </c>
+      <c r="K134" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="L134" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -3976,19 +3985,13 @@
         <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E135" t="s">
-        <v>123</v>
-      </c>
-      <c r="I135" t="s">
-        <v>18</v>
-      </c>
-      <c r="K135" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="L135" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -3996,7 +3999,7 @@
         <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E136" t="s">
         <v>123</v>
@@ -4005,10 +4008,10 @@
         <v>18</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -4016,19 +4019,19 @@
         <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E137" t="s">
         <v>123</v>
       </c>
       <c r="I137" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L137" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4036,10 +4039,19 @@
         <v>5</v>
       </c>
       <c r="D138" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L138" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4047,13 +4059,10 @@
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E139" t="s">
-        <v>126</v>
-      </c>
-      <c r="L139" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4061,16 +4070,13 @@
         <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="E140" t="s">
-        <v>335</v>
-      </c>
-      <c r="I140" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="L140" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4078,10 +4084,16 @@
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>126</v>
+        <v>335</v>
+      </c>
+      <c r="I141" t="s">
+        <v>2</v>
+      </c>
+      <c r="L141" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -4089,16 +4101,10 @@
         <v>5</v>
       </c>
       <c r="D142" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E142" t="s">
-        <v>335</v>
-      </c>
-      <c r="I142" t="s">
-        <v>3</v>
-      </c>
-      <c r="L142" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4106,47 +4112,41 @@
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E143" t="s">
-        <v>121</v>
+        <v>335</v>
+      </c>
+      <c r="I143" t="s">
+        <v>3</v>
       </c>
       <c r="L143" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="K144" s="2" t="s">
-        <v>139</v>
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>121</v>
       </c>
       <c r="L144" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>6</v>
       </c>
-      <c r="D145" t="s">
-        <v>87</v>
-      </c>
-      <c r="E145" t="s">
-        <v>121</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
       <c r="K145" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="L145" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -4154,16 +4154,22 @@
         <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E146" t="s">
         <v>121</v>
       </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
       <c r="K146" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L146" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -4171,16 +4177,16 @@
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E147" t="s">
         <v>121</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L147" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -4188,16 +4194,16 @@
         <v>6</v>
       </c>
       <c r="D148" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E148" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L148" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -4205,16 +4211,16 @@
         <v>6</v>
       </c>
       <c r="D149" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E149" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L149" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -4222,16 +4228,16 @@
         <v>6</v>
       </c>
       <c r="D150" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E150" t="s">
         <v>121</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L150" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -4239,16 +4245,16 @@
         <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E151" t="s">
         <v>121</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L151" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -4256,50 +4262,44 @@
         <v>6</v>
       </c>
       <c r="D152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E152" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L152" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>93</v>
+      </c>
+      <c r="E153" t="s">
+        <v>126</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="L153" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
-      <c r="D154" t="s">
-        <v>77</v>
-      </c>
-      <c r="E154" t="s">
-        <v>121</v>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
       <c r="K154" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="L154" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -4307,16 +4307,22 @@
         <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="E155" t="s">
         <v>121</v>
       </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
       <c r="K155" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L155" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -4324,16 +4330,16 @@
         <v>7</v>
       </c>
       <c r="D156" t="s">
-        <v>89</v>
+        <v>348</v>
       </c>
       <c r="E156" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L156" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -4341,16 +4347,16 @@
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L157" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -4358,19 +4364,16 @@
         <v>7</v>
       </c>
       <c r="D158" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E158" t="s">
-        <v>336</v>
-      </c>
-      <c r="I158" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="L158" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -4378,19 +4381,19 @@
         <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E159" t="s">
-        <v>123</v>
+        <v>336</v>
       </c>
       <c r="I159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="L159" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -4398,50 +4401,47 @@
         <v>7</v>
       </c>
       <c r="D160" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E160" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="I160" t="s">
+        <v>9</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>97</v>
+      </c>
+      <c r="E161" t="s">
+        <v>124</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L161" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>8</v>
       </c>
-      <c r="D162" t="s">
-        <v>77</v>
-      </c>
-      <c r="E162" t="s">
-        <v>121</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
       <c r="K162" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L162" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -4449,16 +4449,22 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E163" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L163" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -4466,16 +4472,16 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>343</v>
+        <v>89</v>
       </c>
       <c r="E164" t="s">
-        <v>123</v>
-      </c>
-      <c r="I164" t="s">
-        <v>343</v>
+        <v>124</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="L164" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -4483,13 +4489,16 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>98</v>
-      </c>
-      <c r="G165" t="b">
-        <v>1</v>
-      </c>
-      <c r="L165" t="s">
-        <v>301</v>
+        <v>343</v>
+      </c>
+      <c r="E165" t="s">
+        <v>123</v>
+      </c>
+      <c r="I165" t="s">
+        <v>343</v>
+      </c>
+      <c r="K165" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -4497,47 +4506,41 @@
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>47</v>
-      </c>
-      <c r="E166" t="s">
-        <v>124</v>
-      </c>
-      <c r="K166" s="2" t="s">
-        <v>149</v>
+        <v>98</v>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
       </c>
       <c r="L166" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>47</v>
+      </c>
+      <c r="E167" t="s">
+        <v>124</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="L167" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>10</v>
       </c>
-      <c r="D168" t="s">
-        <v>77</v>
-      </c>
-      <c r="E168" t="s">
-        <v>121</v>
-      </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
       <c r="K168" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="L168" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -4545,13 +4548,19 @@
         <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E169" t="s">
         <v>121</v>
       </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
       <c r="K169" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -4559,16 +4568,13 @@
         <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E170" t="s">
         <v>121</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L170" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -4576,13 +4582,16 @@
         <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E171" t="s">
         <v>121</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>192</v>
+        <v>158</v>
+      </c>
+      <c r="L171" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -4590,13 +4599,13 @@
         <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E172" t="s">
         <v>121</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -4604,13 +4613,13 @@
         <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E173" t="s">
         <v>121</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -4618,16 +4627,13 @@
         <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E174" t="s">
         <v>121</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L174" t="s">
-        <v>303</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -4635,53 +4641,47 @@
         <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
-      </c>
-      <c r="I175" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="L175" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>104</v>
+      </c>
+      <c r="E176" t="s">
+        <v>115</v>
+      </c>
+      <c r="I176" t="s">
+        <v>9</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="L176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>11</v>
       </c>
-      <c r="D177" t="s">
-        <v>77</v>
-      </c>
-      <c r="E177" t="s">
-        <v>121</v>
-      </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
       <c r="K177" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L177" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -4689,16 +4689,22 @@
         <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E178" t="s">
         <v>121</v>
       </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
       <c r="K178" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L178" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -4706,16 +4712,16 @@
         <v>11</v>
       </c>
       <c r="D179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E179" t="s">
         <v>121</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="L179" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -4723,16 +4729,16 @@
         <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E180" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L180" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -4740,16 +4746,16 @@
         <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E181" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L181" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -4757,19 +4763,16 @@
         <v>11</v>
       </c>
       <c r="D182" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
-      </c>
-      <c r="I182" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L182" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -4777,16 +4780,19 @@
         <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E183" t="s">
-        <v>121</v>
+        <v>335</v>
+      </c>
+      <c r="I183" t="s">
+        <v>10</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L183" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -4794,16 +4800,16 @@
         <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E184" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L184" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -4811,16 +4817,16 @@
         <v>11</v>
       </c>
       <c r="D185" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E185" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L185" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -4828,16 +4834,16 @@
         <v>11</v>
       </c>
       <c r="D186" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E186" t="s">
         <v>94</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L186" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -4845,16 +4851,16 @@
         <v>11</v>
       </c>
       <c r="D187" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E187" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L187" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -4862,16 +4868,16 @@
         <v>11</v>
       </c>
       <c r="D188" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E188" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L188" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -4879,13 +4885,16 @@
         <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E189" t="s">
         <v>126</v>
       </c>
+      <c r="K189" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="L189" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -4893,50 +4902,41 @@
         <v>11</v>
       </c>
       <c r="D190" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E190" t="s">
-        <v>335</v>
-      </c>
-      <c r="I190" t="s">
-        <v>7</v>
-      </c>
-      <c r="K190" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="L190" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D191" t="s">
+        <v>114</v>
+      </c>
+      <c r="E191" t="s">
+        <v>335</v>
+      </c>
+      <c r="I191" t="s">
+        <v>7</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="L191" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>15</v>
       </c>
-      <c r="D192" t="s">
-        <v>77</v>
-      </c>
-      <c r="E192" t="s">
-        <v>121</v>
-      </c>
-      <c r="F192">
-        <v>1</v>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="K192" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="L192" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -4944,13 +4944,22 @@
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="E193" t="s">
         <v>121</v>
       </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="L193" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -4958,13 +4967,13 @@
         <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E194" t="s">
         <v>121</v>
       </c>
       <c r="L194" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -4972,13 +4981,13 @@
         <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E195" t="s">
         <v>121</v>
       </c>
       <c r="L195" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -4986,13 +4995,13 @@
         <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E196" t="s">
         <v>121</v>
       </c>
       <c r="L196" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -5000,96 +5009,102 @@
         <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E197" t="s">
         <v>121</v>
       </c>
       <c r="L197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>12</v>
-      </c>
-      <c r="B198" t="s">
-        <v>350</v>
-      </c>
-      <c r="K198" t="s">
-        <v>163</v>
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>120</v>
+      </c>
+      <c r="E198" t="s">
+        <v>121</v>
       </c>
       <c r="L198" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
         <v>350</v>
       </c>
       <c r="K199" t="s">
-        <v>351</v>
+        <v>163</v>
       </c>
       <c r="L199" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
         <v>350</v>
       </c>
       <c r="K200" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
       <c r="L200" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="B201" t="s">
         <v>350</v>
       </c>
       <c r="K201" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="L201" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>345</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
         <v>350</v>
       </c>
       <c r="K202" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="L202" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B203" t="s">
         <v>350</v>
       </c>
+      <c r="K203" t="s">
+        <v>173</v>
+      </c>
+      <c r="L203" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B204" t="s">
         <v>350</v>
@@ -5097,7 +5112,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>16</v>
+        <v>342</v>
       </c>
       <c r="B205" t="s">
         <v>350</v>
@@ -5105,80 +5120,89 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B206" t="s">
         <v>350</v>
       </c>
-      <c r="K206" t="s">
-        <v>140</v>
-      </c>
-      <c r="L206" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
         <v>350</v>
       </c>
       <c r="K207" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="L207" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B208" t="s">
         <v>350</v>
       </c>
       <c r="K208" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="L208" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="B209" t="s">
         <v>350</v>
       </c>
       <c r="K209" t="s">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="L209" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="B210" t="s">
         <v>350</v>
       </c>
+      <c r="K210" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>340</v>
+        <v>19</v>
       </c>
       <c r="B211" t="s">
         <v>350</v>
       </c>
-      <c r="K211" t="s">
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>340</v>
+      </c>
+      <c r="B212" t="s">
+        <v>350</v>
+      </c>
+      <c r="K212" t="s">
         <v>161</v>
       </c>
-      <c r="L211" t="s">
+      <c r="L212" t="s">
         <v>360</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L212" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -5198,143 +5222,144 @@
     <hyperlink ref="K22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="K24" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="K25" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="K27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="K29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="K31" r:id="rId23" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K32" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="K33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K34" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K35" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="K37" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K38" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="K39" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K40" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="K41" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="K42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="K43" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="K45" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K46" r:id="rId38" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="K47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="K49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K50" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="K51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K55" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="K56" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K57" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="K58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="K65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="K66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="K67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="K68" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="K69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K70" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="K71" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="K72" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="K73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="K74" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="K75" r:id="rId58" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="K76" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="K79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="K83" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K86" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K87" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="K88" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="K93" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="K94" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="K95" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="K96" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K97" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K98" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="K99" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="K100" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K101" r:id="rId73" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="K102" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K103" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K104" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="K105" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="K106" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="K107" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="K109" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="K110" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="K111" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K112" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="K113" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="K114" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K115" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="K116" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K117" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="K118" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="K119" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="K120" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="K121" r:id="rId92" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="K122" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="K123" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="K124" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="K126" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="K127" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="K128" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="K129" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="K131" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="K132" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="K133" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="K135" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="K136" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="K137" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="K144" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="K145" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="K146" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="K147" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="K148" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="K149" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="K150" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="K151" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="K152" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="K153" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="K154" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="K155" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="K156" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="K157" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="K158" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="K159" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="K160" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="K161" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="K162" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="K163" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="K164" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="K166" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="K167" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="K168" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="K169" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="K170" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="K171" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="K172" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="K173" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="K174" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="K175" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="K180" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="K181" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="K182" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="K183" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="K184" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="K185" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="K186" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="K187" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="K188" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="K190" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="K179" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="K178" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="K177" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="K176" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="K28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K29" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K32" r:id="rId23" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K34" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K35" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K47" r:id="rId38" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K56" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K57" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K59" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K66" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K67" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K68" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K69" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K70" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K71" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K72" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K73" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K74" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K75" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K76" r:id="rId58" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K77" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K80" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K84" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K87" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K88" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K89" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K94" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K95" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K96" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K97" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="K98" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="K99" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="K100" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="K101" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="K102" r:id="rId73" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="K103" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K104" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="K105" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="K106" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="K107" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="K108" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="K110" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="K111" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="K112" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="K113" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="K114" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="K115" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K116" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="K117" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K118" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="K119" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="K120" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="K121" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="K122" r:id="rId92" location="wasUpdatedBy" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="K123" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="K124" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="K125" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="K127" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="K128" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="K129" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="K130" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="K132" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K133" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="K134" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="K136" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="K137" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="K138" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="K145" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="K146" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="K147" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="K148" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="K149" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="K150" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="K151" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="K152" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="K153" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="K154" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="K155" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="K156" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="K157" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="K158" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="K159" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="K160" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="K161" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="K162" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="K163" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="K164" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="K165" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="K167" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="K168" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="K169" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="K170" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="K171" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="K172" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="K173" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="K174" r:id="rId134" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="K175" r:id="rId135" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="K176" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="K181" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="K182" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="K183" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="K184" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="K185" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="K186" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="K187" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="K188" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="K189" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="K191" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="K180" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="K179" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="K178" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="K177" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
     <hyperlink ref="K20" r:id="rId151" xr:uid="{0D8AA59C-7F2E-ED4F-8FC5-75D501999DE9}"/>
-    <hyperlink ref="K52" r:id="rId152" xr:uid="{56B2311B-DD5D-234C-A9B7-234CA982EF53}"/>
-    <hyperlink ref="K61" r:id="rId153" xr:uid="{8C1FCB83-97EA-8B43-8E70-699CBF2DCAA0}"/>
-    <hyperlink ref="K62" r:id="rId154" xr:uid="{C562B859-AD00-144E-8532-667F72F17AA0}"/>
-    <hyperlink ref="K64" r:id="rId155" xr:uid="{151FDED6-26CC-4649-A016-8E07E5091B59}"/>
+    <hyperlink ref="K53" r:id="rId152" xr:uid="{56B2311B-DD5D-234C-A9B7-234CA982EF53}"/>
+    <hyperlink ref="K62" r:id="rId153" xr:uid="{8C1FCB83-97EA-8B43-8E70-699CBF2DCAA0}"/>
+    <hyperlink ref="K63" r:id="rId154" xr:uid="{C562B859-AD00-144E-8532-667F72F17AA0}"/>
+    <hyperlink ref="K65" r:id="rId155" xr:uid="{151FDED6-26CC-4649-A016-8E07E5091B59}"/>
+    <hyperlink ref="K27" r:id="rId156" xr:uid="{3D3E3C53-5189-B145-BFF4-EA348A54665C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/emx2/rd3_emx2.xlsx
+++ b/emx2/rd3_emx2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcruvolo/Github/projects-solve-rd/emx2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71460961-5E41-CB4D-8A1D-7C1CADBCF47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D831D77-7E26-E04F-86A5-549139A2C3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3180" windowWidth="38400" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="365">
   <si>
     <t>subjects</t>
   </si>
@@ -1109,6 +1109,15 @@
   </si>
   <si>
     <t>subjectInformation</t>
+  </si>
+  <si>
+    <t>tissueType</t>
+  </si>
+  <si>
+    <t>materialType</t>
+  </si>
+  <si>
+    <t>libraryType</t>
   </si>
 </sst>
 </file>
@@ -1524,10 +1533,10 @@
   <dimension ref="A1:L212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2598,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="E58" t="s">
         <v>115</v>
@@ -2629,7 +2638,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="E60" t="s">
         <v>123</v>
@@ -3021,7 +3030,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="E82" t="s">
         <v>115</v>
